--- a/trunk/Project Management/HospitalF Project Plan.xlsx
+++ b/trunk/Project Management/HospitalF Project Plan.xlsx
@@ -9,21 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Project Phases" sheetId="4" r:id="rId1"/>
     <sheet name="Phase 1" sheetId="5" r:id="rId2"/>
+    <sheet name="Phase 2" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Phase 1'!$A$2:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Phase 1'!$A$2:$J$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Phase 2'!$A$2:$J$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="112">
   <si>
     <t>Task</t>
   </si>
@@ -76,9 +78,6 @@
     <t>Nguyễn Xuân Sơn</t>
   </si>
   <si>
-    <t>P1T2</t>
-  </si>
-  <si>
     <t>P1T3</t>
   </si>
   <si>
@@ -106,18 +105,6 @@
     <t>P1T10</t>
   </si>
   <si>
-    <t>P1T11</t>
-  </si>
-  <si>
-    <t>P1T12</t>
-  </si>
-  <si>
-    <t>P1T13</t>
-  </si>
-  <si>
-    <t>P1T14</t>
-  </si>
-  <si>
     <t>PHASE 1 (05/19/2014 - 05/26/2014)</t>
   </si>
   <si>
@@ -130,18 +117,12 @@
     <t>Lê Phước Việt</t>
   </si>
   <si>
-    <t>Review report 2</t>
-  </si>
-  <si>
     <t>Define methods for each role</t>
   </si>
   <si>
     <t>Deme a project using Facebook API</t>
   </si>
   <si>
-    <t>Create website interface</t>
-  </si>
-  <si>
     <t>Design layout</t>
   </si>
   <si>
@@ -154,139 +135,232 @@
     <t>Vũ Nhật Anh Khoa</t>
   </si>
   <si>
-    <t>Research to find alogorithm for optimizing search method</t>
-  </si>
-  <si>
     <t>Create and review general use case</t>
   </si>
   <si>
     <t>Research Google API to demo 02 main functions: display one place on map with some brief description and display places that is near to pre-defined place</t>
   </si>
   <si>
-    <t>P1T15</t>
-  </si>
-  <si>
-    <t>P1T16</t>
-  </si>
-  <si>
-    <t>P1T17</t>
-  </si>
-  <si>
-    <t>P1T18</t>
-  </si>
-  <si>
-    <t>P1T19</t>
-  </si>
-  <si>
-    <t>P1T20</t>
-  </si>
-  <si>
-    <t>P1T21</t>
-  </si>
-  <si>
-    <t>P1T22</t>
-  </si>
-  <si>
-    <t>P1T23</t>
-  </si>
-  <si>
-    <t>P1T24</t>
-  </si>
-  <si>
-    <t>P1T25</t>
-  </si>
-  <si>
-    <t>P1T26</t>
-  </si>
-  <si>
-    <t>P1T27</t>
-  </si>
-  <si>
-    <t>P1T28</t>
-  </si>
-  <si>
-    <t>P1T29</t>
-  </si>
-  <si>
-    <t>P1T30</t>
-  </si>
-  <si>
-    <t>P1T31</t>
-  </si>
-  <si>
-    <t>P1T32</t>
-  </si>
-  <si>
-    <t>P1T33</t>
-  </si>
-  <si>
-    <t>P1T34</t>
-  </si>
-  <si>
-    <t>P1T35</t>
-  </si>
-  <si>
-    <t>P1T36</t>
-  </si>
-  <si>
-    <t>P1T37</t>
-  </si>
-  <si>
-    <t>P1T38</t>
-  </si>
-  <si>
-    <t>P1T39</t>
-  </si>
-  <si>
-    <t>P1T40</t>
-  </si>
-  <si>
-    <t>P1T41</t>
-  </si>
-  <si>
-    <t>P1T42</t>
-  </si>
-  <si>
-    <t>P1T43</t>
-  </si>
-  <si>
-    <t>P1T44</t>
-  </si>
-  <si>
-    <t>P1T45</t>
-  </si>
-  <si>
-    <t>P1T46</t>
-  </si>
-  <si>
-    <t>P1T47</t>
-  </si>
-  <si>
-    <t>P1T48</t>
-  </si>
-  <si>
-    <t>P1T49</t>
-  </si>
-  <si>
-    <t>P1T50</t>
-  </si>
-  <si>
-    <t>P1T51</t>
-  </si>
-  <si>
-    <t>P1T52</t>
-  </si>
-  <si>
-    <t>P1T53</t>
-  </si>
-  <si>
-    <t>P1T54</t>
-  </si>
-  <si>
     <t>Create Physical Database</t>
   </si>
   <si>
     <t>Create physical database in SQL Server</t>
+  </si>
+  <si>
+    <t>Study responsive website layout</t>
+  </si>
+  <si>
+    <t>User requirement specification</t>
+  </si>
+  <si>
+    <t>PHASE 2 (05/27/2014 - 06/02/2014)</t>
+  </si>
+  <si>
+    <t>P2T1</t>
+  </si>
+  <si>
+    <t>P2T2</t>
+  </si>
+  <si>
+    <t>P2T3</t>
+  </si>
+  <si>
+    <t>P2T4</t>
+  </si>
+  <si>
+    <t>P2T5</t>
+  </si>
+  <si>
+    <t>P2T6</t>
+  </si>
+  <si>
+    <t>P2T7</t>
+  </si>
+  <si>
+    <t>P2T8</t>
+  </si>
+  <si>
+    <t>P2T9</t>
+  </si>
+  <si>
+    <t>P2T10</t>
+  </si>
+  <si>
+    <t>P2T11</t>
+  </si>
+  <si>
+    <t>P2T12</t>
+  </si>
+  <si>
+    <t>P2T13</t>
+  </si>
+  <si>
+    <t>P2T14</t>
+  </si>
+  <si>
+    <t>P2T15</t>
+  </si>
+  <si>
+    <t>P2T16</t>
+  </si>
+  <si>
+    <t>P2T17</t>
+  </si>
+  <si>
+    <t>P2T18</t>
+  </si>
+  <si>
+    <t>P2T19</t>
+  </si>
+  <si>
+    <t>P2T20</t>
+  </si>
+  <si>
+    <t>P2T21</t>
+  </si>
+  <si>
+    <t>P2T22</t>
+  </si>
+  <si>
+    <t>Expected Start Date</t>
+  </si>
+  <si>
+    <t>Expected End Date</t>
+  </si>
+  <si>
+    <t>Real Start Date</t>
+  </si>
+  <si>
+    <t>Real End Date</t>
+  </si>
+  <si>
+    <t>Still working on optimize algorithm</t>
+  </si>
+  <si>
+    <t>Research to find alogorithms for optimizing search method</t>
+  </si>
+  <si>
+    <t>Review and update use case</t>
+  </si>
+  <si>
+    <t>Create report 4</t>
+  </si>
+  <si>
+    <t>Login use case</t>
+  </si>
+  <si>
+    <t>Change password use case</t>
+  </si>
+  <si>
+    <t>Reclaim forgot password use case</t>
+  </si>
+  <si>
+    <t>Create hospital users' account use case</t>
+  </si>
+  <si>
+    <t>Update hospital users's account use case</t>
+  </si>
+  <si>
+    <t>View list of users or hospital users use case</t>
+  </si>
+  <si>
+    <t>View hospitals or clinics information use case</t>
+  </si>
+  <si>
+    <t>Update hospitals or clinics information use case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comment use case</t>
+  </si>
+  <si>
+    <t>Reply comment use case</t>
+  </si>
+  <si>
+    <t>Rating use case</t>
+  </si>
+  <si>
+    <t>Create feedback use case</t>
+  </si>
+  <si>
+    <t>View list of feedbacks use case</t>
+  </si>
+  <si>
+    <t>Import list of hospitals or clinics by Excel use case</t>
+  </si>
+  <si>
+    <t>Create appointments online use case</t>
+  </si>
+  <si>
+    <t>View list of appointments use case</t>
+  </si>
+  <si>
+    <t>View administrator statistics use case</t>
+  </si>
+  <si>
+    <t>View hospital statistics use case</t>
+  </si>
+  <si>
+    <t>Describe system login and Facebok login use case</t>
+  </si>
+  <si>
+    <t>Describe how users can change their password</t>
+  </si>
+  <si>
+    <t>Describe how users can reclaim their password in case of forgoting</t>
+  </si>
+  <si>
+    <t>In case of creating new user for an existed hospital or clinic, assigned that center for the user. In case of creating new user for new hospital or clinic, a form of creating new hospital is required.</t>
+  </si>
+  <si>
+    <t>Update hospital users' accounts</t>
+  </si>
+  <si>
+    <t>Deactivate or activate normal or hospital users' accounts use case</t>
+  </si>
+  <si>
+    <t>Deactivate or activate users in the system</t>
+  </si>
+  <si>
+    <t>Display information about a specific hospital or clinic. Including basic contact address, comments and rating</t>
+  </si>
+  <si>
+    <t>Update information of a specific hospital or clinic</t>
+  </si>
+  <si>
+    <t>Create a new comment about hospitals or clinics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reply a comment about a specific hospital or clinic </t>
+  </si>
+  <si>
+    <t>Rate by score about a specific hospital or clinic.</t>
+  </si>
+  <si>
+    <t>Create new feedback about a specfic hospital or clinic, or give contribution for administrators of the system</t>
+  </si>
+  <si>
+    <t>Display a list of users in the system. Support column sort, filter and paging</t>
+  </si>
+  <si>
+    <t>Display a list of feedbacks. Support column sort, filter and paging</t>
+  </si>
+  <si>
+    <t>Import a list of hospitals and clinics to the system through a pre-defined Excel template</t>
+  </si>
+  <si>
+    <t>Create a new appoitnment</t>
+  </si>
+  <si>
+    <t>Display a list of appointments through Google calendar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics about </t>
+  </si>
+  <si>
+    <t>Manage monthly appointments or annual appointment</t>
+  </si>
+  <si>
+    <t>Top 10 illness or disease that have the highest search percent by users monthly and annually</t>
   </si>
 </sst>
 </file>
@@ -336,7 +410,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,8 +441,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -663,8 +749,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
         <color theme="4"/>
       </right>
       <top/>
@@ -675,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -736,142 +883,230 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1358,6 +1593,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.140625" customWidth="1"/>
@@ -1394,16 +1630,26 @@
       <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>41786</v>
+      </c>
+      <c r="C3" s="5">
+        <v>41792</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -1483,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,15 +1741,17 @@
     <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -1511,9 +1759,11 @@
       <c r="E1" s="61"/>
       <c r="F1" s="61"/>
       <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
@@ -1526,814 +1776,361 @@
       <c r="D2" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="67" t="s">
+      <c r="E2" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="J2" s="68" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="64"/>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
       <c r="D3" s="67"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="69"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="69"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="34"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E4" s="40">
+        <v>41782</v>
+      </c>
+      <c r="F4" s="40">
+        <v>41782</v>
+      </c>
+      <c r="G4" s="70">
+        <v>41782</v>
+      </c>
+      <c r="H4" s="70">
+        <v>41782</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="25">
+        <v>41779</v>
+      </c>
+      <c r="F5" s="25">
+        <v>41779</v>
+      </c>
+      <c r="G5" s="71">
+        <v>41779</v>
+      </c>
+      <c r="H5" s="71">
+        <v>41779</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="53">
+        <v>41781</v>
+      </c>
+      <c r="F6" s="53">
+        <v>41785</v>
+      </c>
+      <c r="G6" s="72">
+        <v>41781</v>
+      </c>
+      <c r="H6" s="72">
+        <v>41785</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="25">
-        <v>41779</v>
-      </c>
-      <c r="F6" s="25">
-        <v>41779</v>
-      </c>
-      <c r="G6" s="27" t="s">
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="25">
+        <v>41778</v>
+      </c>
+      <c r="F8" s="25">
+        <v>41778</v>
+      </c>
+      <c r="G8" s="71">
+        <v>41778</v>
+      </c>
+      <c r="H8" s="71">
+        <v>41778</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="35"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="35"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="35"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E9" s="25">
+        <v>41779</v>
+      </c>
+      <c r="F9" s="25">
+        <v>41781</v>
+      </c>
+      <c r="G9" s="71">
+        <v>41779</v>
+      </c>
+      <c r="H9" s="71">
+        <v>41781</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>40</v>
+      <c r="B10" s="35" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="25">
-        <v>41779</v>
+        <v>41785</v>
       </c>
       <c r="F10" s="25">
+        <v>41785</v>
+      </c>
+      <c r="G10" s="71">
+        <v>41785</v>
+      </c>
+      <c r="H10" s="71">
+        <v>41785</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="57">
+        <v>41780</v>
+      </c>
+      <c r="F11" s="57">
+        <v>41785</v>
+      </c>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="80"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="41">
         <v>41781</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="F13" s="41">
+        <v>41785</v>
+      </c>
+      <c r="G13" s="74">
+        <v>41781</v>
+      </c>
+      <c r="H13" s="74">
+        <v>41785</v>
+      </c>
+      <c r="I13" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="35"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="35"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="36"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="36"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="36"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="36"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="36"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="36"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="36"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="36"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="36"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="36"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="36"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="36"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="36"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="36"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="36"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="36"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="36"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="36"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="36"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="36"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="36"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="36"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="36"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="36"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="36"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="36"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="36"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="36"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="36"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="36"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="36"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="36"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="36"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="36"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="36"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="36"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="36"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="36"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="36"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="36"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="36"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="36"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="36"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="36"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="36"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="36"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="37"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H3"/>
-  <mergeCells count="21">
-    <mergeCell ref="A1:H1"/>
+  <autoFilter ref="A2:J3"/>
+  <mergeCells count="28">
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G7 G9:G12 G16:G59 G14">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I11 I4:I6 I13:I14">
       <formula1>"In progress, Pending, Canceled, Finished"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D59">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:F13 G13:H14 E4:H6 E9:F10 G9:H11">
+      <formula1>41778</formula1>
+      <formula2>41785</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D14">
       <formula1>"Lê Phước Việt, Nguyễn Xuân Sơn, Vũ Nhật Anh Khoa, Dương Thị Hoàng Anh"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:F7 E9:F12 E14:F14 E16:F59">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:F14 E11:F12 E8:H8">
       <formula1>41778</formula1>
       <formula2>41785</formula2>
     </dataValidation>
@@ -2341,4 +2138,744 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="69"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="40">
+        <v>41786</v>
+      </c>
+      <c r="F4" s="40">
+        <v>41786</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="40">
+        <v>41786</v>
+      </c>
+      <c r="F5" s="40">
+        <v>41786</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="40">
+        <v>41786</v>
+      </c>
+      <c r="F6" s="40">
+        <v>41786</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="40">
+        <v>41786</v>
+      </c>
+      <c r="F7" s="40">
+        <v>41786</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="40">
+        <v>41787</v>
+      </c>
+      <c r="F8" s="40">
+        <v>41787</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="40">
+        <v>41787</v>
+      </c>
+      <c r="F9" s="40">
+        <v>41787</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="40">
+        <v>41787</v>
+      </c>
+      <c r="F10" s="40">
+        <v>41787</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="40">
+        <v>41787</v>
+      </c>
+      <c r="F11" s="40">
+        <v>41787</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="40">
+        <v>41787</v>
+      </c>
+      <c r="F12" s="40">
+        <v>41787</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="40">
+        <v>41787</v>
+      </c>
+      <c r="F13" s="40">
+        <v>41787</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="40">
+        <v>41787</v>
+      </c>
+      <c r="F14" s="40">
+        <v>41787</v>
+      </c>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="40">
+        <v>41787</v>
+      </c>
+      <c r="F15" s="40">
+        <v>41787</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="40">
+        <v>41787</v>
+      </c>
+      <c r="F16" s="40">
+        <v>41787</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="40">
+        <v>41787</v>
+      </c>
+      <c r="F17" s="40">
+        <v>41787</v>
+      </c>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="40">
+        <v>41788</v>
+      </c>
+      <c r="F18" s="40">
+        <v>41788</v>
+      </c>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="40">
+        <v>41788</v>
+      </c>
+      <c r="F19" s="40">
+        <v>41788</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="31"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="40">
+        <v>41788</v>
+      </c>
+      <c r="F20" s="40">
+        <v>41788</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="31"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="40">
+        <v>41788</v>
+      </c>
+      <c r="F21" s="40">
+        <v>41788</v>
+      </c>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="40">
+        <v>41788</v>
+      </c>
+      <c r="F22" s="40">
+        <v>41788</v>
+      </c>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="57">
+        <v>41789</v>
+      </c>
+      <c r="F23" s="57">
+        <v>41792</v>
+      </c>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="79"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="83"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="94"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="52"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="80"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="41">
+        <v>41792</v>
+      </c>
+      <c r="F26" s="41">
+        <v>41792</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="84"/>
+      <c r="D27" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="57">
+        <v>41786</v>
+      </c>
+      <c r="F27" s="57">
+        <v>41789</v>
+      </c>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="79"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="82"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="95"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:J3"/>
+  <mergeCells count="29">
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I23 I26:I27">
+      <formula1>"In progress, Pending, Canceled, Finished"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D28">
+      <formula1>"Lê Phước Việt, Nguyễn Xuân Sơn, Vũ Nhật Anh Khoa, Dương Thị Hoàng Anh"</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:E27 E4:E23 F26:F27 F4:F23 G26:G27 G4:G23 H4:H23 H26:H27">
+      <formula1>41786</formula1>
+      <formula2>41792</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/Project Management/HospitalF Project Plan.xlsx
+++ b/trunk/Project Management/HospitalF Project Plan.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\FU\Capstone Project\hospital-finder\Project Management\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" activeTab="2"/>
   </bookViews>
@@ -938,112 +933,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1052,10 +1062,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1064,50 +1095,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,7 +1338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1378,7 +1373,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1750,62 +1745,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="71"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="77" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="69"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="78"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
@@ -1826,10 +1821,10 @@
       <c r="F4" s="40">
         <v>41782</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="45">
         <v>41782</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="45">
         <v>41782</v>
       </c>
       <c r="I4" s="26" t="s">
@@ -1856,10 +1851,10 @@
       <c r="F5" s="25">
         <v>41779</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="46">
         <v>41779</v>
       </c>
-      <c r="H5" s="71">
+      <c r="H5" s="46">
         <v>41779</v>
       </c>
       <c r="I5" s="26" t="s">
@@ -1868,47 +1863,47 @@
       <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="56" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="64">
         <v>41781</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="64">
         <v>41785</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="52">
         <v>41781</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="52">
         <v>41785</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="81" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="50"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="82"/>
       <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1930,10 +1925,10 @@
       <c r="F8" s="25">
         <v>41778</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="46">
         <v>41778</v>
       </c>
-      <c r="H8" s="71">
+      <c r="H8" s="46">
         <v>41778</v>
       </c>
       <c r="I8" s="26" t="s">
@@ -1960,10 +1955,10 @@
       <c r="F9" s="25">
         <v>41781</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="46">
         <v>41779</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="46">
         <v>41781</v>
       </c>
       <c r="I9" s="26" t="s">
@@ -1990,10 +1985,10 @@
       <c r="F10" s="25">
         <v>41785</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="46">
         <v>41785</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="46">
         <v>41785</v>
       </c>
       <c r="I10" s="43" t="s">
@@ -2002,46 +1997,46 @@
       <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="56" t="s">
         <v>70</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="62">
         <v>41780</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="62">
         <v>41785</v>
       </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="45" t="s">
+      <c r="G11" s="58"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="79" t="s">
+      <c r="J11" s="66" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="48"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="80"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -2062,10 +2057,10 @@
       <c r="F13" s="41">
         <v>41785</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="47">
         <v>41781</v>
       </c>
-      <c r="H13" s="74">
+      <c r="H13" s="47">
         <v>41785</v>
       </c>
       <c r="I13" s="42" t="s">
@@ -2144,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,62 +2158,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="71"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="77" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="69"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="78"/>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
@@ -2241,7 +2236,7 @@
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="29"/>
@@ -2267,7 +2262,7 @@
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="98" t="s">
+      <c r="I5" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="30"/>
@@ -2293,7 +2288,7 @@
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="98" t="s">
+      <c r="I6" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="30"/>
@@ -2317,9 +2312,9 @@
       <c r="F7" s="40">
         <v>41786</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="98" t="s">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="30"/>
@@ -2345,7 +2340,7 @@
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="98" t="s">
+      <c r="I8" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="30"/>
@@ -2371,7 +2366,7 @@
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="98" t="s">
+      <c r="I9" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="30"/>
@@ -2397,7 +2392,7 @@
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="98" t="s">
+      <c r="I10" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="30"/>
@@ -2423,7 +2418,7 @@
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="98" t="s">
+      <c r="I11" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="30"/>
@@ -2449,7 +2444,7 @@
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="98" t="s">
+      <c r="I12" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J12" s="31"/>
@@ -2475,7 +2470,7 @@
       </c>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="98" t="s">
+      <c r="I13" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J13" s="31"/>
@@ -2501,7 +2496,7 @@
       </c>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
-      <c r="I14" s="98" t="s">
+      <c r="I14" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J14" s="31"/>
@@ -2527,7 +2522,7 @@
       </c>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="98" t="s">
+      <c r="I15" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J15" s="31"/>
@@ -2553,7 +2548,7 @@
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="98" t="s">
+      <c r="I16" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J16" s="31"/>
@@ -2579,7 +2574,7 @@
       </c>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
-      <c r="I17" s="98" t="s">
+      <c r="I17" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J17" s="31"/>
@@ -2605,7 +2600,7 @@
       </c>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
-      <c r="I18" s="98" t="s">
+      <c r="I18" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J18" s="31"/>
@@ -2631,7 +2626,7 @@
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
-      <c r="I19" s="98" t="s">
+      <c r="I19" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J19" s="31"/>
@@ -2657,7 +2652,7 @@
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
-      <c r="I20" s="98" t="s">
+      <c r="I20" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J20" s="31"/>
@@ -2683,7 +2678,7 @@
       </c>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
-      <c r="I21" s="98" t="s">
+      <c r="I21" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J21" s="31"/>
@@ -2709,64 +2704,64 @@
       </c>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
-      <c r="I22" s="99" t="s">
+      <c r="I22" s="49" t="s">
         <v>9</v>
       </c>
       <c r="J22" s="31"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="90" t="s">
         <v>110</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="62">
         <v>41789</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="62">
         <v>41792</v>
       </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="45" t="s">
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="79"/>
+      <c r="J23" s="66"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="85"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="97"/>
       <c r="D24" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="94"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="93"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="86"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="98"/>
       <c r="D25" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="80"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="67"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
@@ -2787,48 +2782,48 @@
       </c>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
-      <c r="I26" s="99" t="s">
+      <c r="I26" s="49" t="s">
         <v>9</v>
       </c>
       <c r="J26" s="31"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="84"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="62">
         <v>41786</v>
       </c>
-      <c r="F27" s="57">
+      <c r="F27" s="62">
         <v>41789</v>
       </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="45" t="s">
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="79"/>
+      <c r="J27" s="66"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="82"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="97"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="95"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="85"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:J3"/>
@@ -2870,7 +2865,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D28">
       <formula1>"Lê Phước Việt, Nguyễn Xuân Sơn, Vũ Nhật Anh Khoa, Dương Thị Hoàng Anh"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:E27 E4:E23 F26:F27 F4:F23 G26:G27 G4:G23 H4:H23 H26:H27">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:H27 E4:H23">
       <formula1>41786</formula1>
       <formula2>41792</formula2>
     </dataValidation>
